--- a/Individual Project/Gantt Chart.xlsx
+++ b/Individual Project/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computing Study\Semister 6\Academic Writing 3\Individual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC8A180-6FD7-4AE9-A8A7-4F7E07D5B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D221EC-AB1C-4AC5-8843-186CDA3873C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{80E314F5-3825-44C7-A50C-7A1BC9A581E8}"/>
   </bookViews>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F667A5-5D74-4A84-96BB-349923FE675B}">
   <dimension ref="A1:BC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AV34" sqref="AV34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1226,7 @@
         <v>44696</v>
       </c>
       <c r="C9" s="8">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D9" s="13">
         <v>44796</v>
